--- a/Repositorio/referencias/equação para calculas distancia.xlsx
+++ b/Repositorio/referencias/equação para calculas distancia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCC\Repositorio\referencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C1AC3C-1654-463F-8491-F8DA360295A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95889308-00B6-44F6-9541-988F3780C5E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{6EF53330-1C70-4340-BD23-6ABFEFD156A3}"/>
   </bookViews>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E977E6-5565-4CD4-98BA-F4E179167421}">
   <dimension ref="C6:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>-26.181538400000001</v>
+        <v>-26.125263</v>
       </c>
       <c r="E7" s="1">
-        <v>-50.3872012</v>
+        <v>-50.30659</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -467,26 +467,26 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>-26.181314440000001</v>
+        <v>-26.17371</v>
       </c>
       <c r="E8" s="1">
-        <v>-50.384700000000002</v>
+        <v>-50.390079999999998</v>
       </c>
       <c r="G8">
         <f>RADIANS(90-D7)</f>
-        <v>2.0277503751122246</v>
+        <v>2.0267681840943479</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G13">
         <f>6371*ACOS(COS(RADIANS(90-D7))*COS(RADIANS(90-D8))+SIN(RADIANS(90-D7))*SIN(RADIANS(90-D8))*COS(RADIANS(E7-E8)))/1.609</f>
-        <v>0.15588892081700667</v>
+        <v>6.1672150261929595</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="G14" s="2">
         <f>G13*1000*1.61</f>
-        <v>250.98116251538073</v>
+        <v>9929.2161921706647</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>2</v>
